--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_25_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_25_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_0</t>
+          <t>model_25_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9379961540005762</v>
+        <v>0.955418949408915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8118594118808833</v>
+        <v>0.8267479246128926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9768551684799925</v>
+        <v>0.7531428574603238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9617446497151534</v>
+        <v>0.9565585272909518</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9683171024375475</v>
+        <v>0.9397357007436631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4146200036996056</v>
+        <v>0.2981136905794481</v>
       </c>
       <c r="H2" t="n">
-        <v>1.258096979060285</v>
+        <v>1.158537425866041</v>
       </c>
       <c r="I2" t="n">
-        <v>0.312698394202508</v>
+        <v>0.3738195797832664</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6734447742746037</v>
+        <v>0.3778624616994908</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4930716552362705</v>
+        <v>0.375840862511566</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25315087211848</v>
+        <v>0.7973281708353146</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6439099344625812</v>
+        <v>0.5459978851419189</v>
       </c>
       <c r="N2" t="n">
-        <v>1.070861538285056</v>
+        <v>1.050949772104097</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6713225134499726</v>
+        <v>0.5692421454838461</v>
       </c>
       <c r="P2" t="n">
-        <v>91.76078566390858</v>
+        <v>92.42056070644473</v>
       </c>
       <c r="Q2" t="n">
-        <v>146.6101977829776</v>
+        <v>147.2699728255137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_1</t>
+          <t>model_25_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9380156203542784</v>
+        <v>0.9550321454335723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8115620769778377</v>
+        <v>0.8264636540242002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9759506264165001</v>
+        <v>0.7565574241123878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9606675837428815</v>
+        <v>0.9566963936163828</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9673153075514349</v>
+        <v>0.94024638891593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4144898321027651</v>
+        <v>0.3007002505436331</v>
       </c>
       <c r="H3" t="n">
-        <v>1.260085258926052</v>
+        <v>1.160438344601573</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3249192155335352</v>
+        <v>0.3686488488176379</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6924053757375266</v>
+        <v>0.3766632733234021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5086622956355309</v>
+        <v>0.3726559340297324</v>
       </c>
       <c r="L3" t="n">
-        <v>1.249403556463525</v>
+        <v>0.8211259434791556</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6438088474871754</v>
+        <v>0.5483614232817924</v>
       </c>
       <c r="N3" t="n">
-        <v>1.070839291023682</v>
+        <v>1.051391833790203</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6712171229927449</v>
+        <v>0.5717063043355325</v>
       </c>
       <c r="P3" t="n">
-        <v>91.76141367043938</v>
+        <v>92.40328271157338</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.6108257895084</v>
+        <v>147.2526948306424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_2</t>
+          <t>model_25_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9379658000100936</v>
+        <v>0.9546299574613479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8112287269547174</v>
+        <v>0.8261648010575653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9749541652713232</v>
+        <v>0.7599356028981279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9595324584757259</v>
+        <v>0.95681866930806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9662408134213862</v>
+        <v>0.9407417317247948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4148229809737306</v>
+        <v>0.3033896833658032</v>
       </c>
       <c r="H4" t="n">
-        <v>1.262314372065593</v>
+        <v>1.162436775765552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3383819102052436</v>
+        <v>0.3635332205594231</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7123880493667329</v>
+        <v>0.3755996953417668</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5253843330754596</v>
+        <v>0.3695667075586707</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24588308113284</v>
+        <v>0.8453776400352004</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6440675282714776</v>
+        <v>0.550808209239662</v>
       </c>
       <c r="N4" t="n">
-        <v>1.070896228559893</v>
+        <v>1.051851477187031</v>
       </c>
       <c r="O4" t="n">
-        <v>0.671486816353578</v>
+        <v>0.5742572550371737</v>
       </c>
       <c r="P4" t="n">
-        <v>91.75980680324218</v>
+        <v>92.38547443210905</v>
       </c>
       <c r="Q4" t="n">
-        <v>146.6092189223112</v>
+        <v>147.2348865511781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_3</t>
+          <t>model_25_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9378466013013014</v>
+        <v>0.9542117314655492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8108597730776852</v>
+        <v>0.8258508514337535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9738652770690159</v>
+        <v>0.7632701371112722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9583390732861652</v>
+        <v>0.9569245216201182</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9650931846226366</v>
+        <v>0.9412204361792134</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4156200632882834</v>
+        <v>0.3061863625254629</v>
       </c>
       <c r="H5" t="n">
-        <v>1.264781568340184</v>
+        <v>1.164536158345586</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3530933412231456</v>
+        <v>0.3584836839508958</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7333963269964562</v>
+        <v>0.3746789711416749</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5432445439441423</v>
+        <v>0.3665812468919585</v>
       </c>
       <c r="L5" t="n">
-        <v>1.242573461149962</v>
+        <v>0.8700804896001999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6446860191506276</v>
+        <v>0.5533410905810835</v>
       </c>
       <c r="N5" t="n">
-        <v>1.071032455655656</v>
+        <v>1.052329449753658</v>
       </c>
       <c r="O5" t="n">
-        <v>0.672131637669906</v>
+        <v>0.5768979663810868</v>
       </c>
       <c r="P5" t="n">
-        <v>91.75596749089037</v>
+        <v>92.36712266910195</v>
       </c>
       <c r="Q5" t="n">
-        <v>146.6053796099594</v>
+        <v>147.216534788171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_4</t>
+          <t>model_25_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9376579608074167</v>
+        <v>0.9537769810681982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8104556667104471</v>
+        <v>0.8255213713978703</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9726830028122888</v>
+        <v>0.7665580089554338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.957087143548726</v>
+        <v>0.9570135516558631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9638719055449896</v>
+        <v>0.9416816785180598</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4168815031394998</v>
+        <v>0.3090935404343904</v>
       </c>
       <c r="H6" t="n">
-        <v>1.267483829478643</v>
+        <v>1.166739392862653</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3690664651262493</v>
+        <v>0.3535048088876873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7554352191555835</v>
+        <v>0.3739045704049163</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5622509525320515</v>
+        <v>0.3637046894508513</v>
       </c>
       <c r="L6" t="n">
-        <v>1.239452399120633</v>
+        <v>0.8952413677265979</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6456636145389485</v>
+        <v>0.5559618156262086</v>
       </c>
       <c r="N6" t="n">
-        <v>1.071248044791524</v>
+        <v>1.052826307350631</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6731508513178091</v>
+        <v>0.5796302611170316</v>
       </c>
       <c r="P6" t="n">
-        <v>91.74990652539799</v>
+        <v>92.34822265608481</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.599318644467</v>
+        <v>147.1976347751538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_5</t>
+          <t>model_25_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9374002037806388</v>
+        <v>0.9533251320079614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8100165487722716</v>
+        <v>0.8251758620851303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9714065875554331</v>
+        <v>0.7697918814850326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9557772957949522</v>
+        <v>0.9570848369100233</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9625770557932453</v>
+        <v>0.942123994324499</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4186051255644254</v>
+        <v>0.3121150571807671</v>
       </c>
       <c r="H7" t="n">
-        <v>1.270420213153176</v>
+        <v>1.16904981522787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3863114816133787</v>
+        <v>0.3486077058196932</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7784936964223231</v>
+        <v>0.3732845172635263</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5824023199729982</v>
+        <v>0.3609461681331559</v>
       </c>
       <c r="L7" t="n">
-        <v>1.236521782794667</v>
+        <v>0.9208643809540088</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6469970058388411</v>
+        <v>0.5586725849554165</v>
       </c>
       <c r="N7" t="n">
-        <v>1.071542624250698</v>
+        <v>1.053342706276615</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6745410078458387</v>
+        <v>0.58245643350865</v>
       </c>
       <c r="P7" t="n">
-        <v>91.7416544490105</v>
+        <v>92.32876677227486</v>
       </c>
       <c r="Q7" t="n">
-        <v>146.5910665680795</v>
+        <v>147.1781788913439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_6</t>
+          <t>model_25_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9370738971989059</v>
+        <v>0.9528555279931709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.809542594286748</v>
+        <v>0.8248138460062755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9700354418588035</v>
+        <v>0.7729653852943088</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9544109203516488</v>
+        <v>0.9571378592238935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9612090387221198</v>
+        <v>0.9425462574342977</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4207871391789774</v>
+        <v>0.3152553013899998</v>
       </c>
       <c r="H8" t="n">
-        <v>1.273589548980231</v>
+        <v>1.171470618414103</v>
       </c>
       <c r="I8" t="n">
-        <v>0.404836354312629</v>
+        <v>0.3438020200363315</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8025472835712639</v>
+        <v>0.372823318763692</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6036923689756715</v>
+        <v>0.3583127063099543</v>
       </c>
       <c r="L8" t="n">
-        <v>1.233759909800443</v>
+        <v>0.9469491913230786</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6486810766308644</v>
+        <v>0.561476002505895</v>
       </c>
       <c r="N8" t="n">
-        <v>1.071915546058393</v>
+        <v>1.053879396579233</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6762967730179855</v>
+        <v>0.5853791983481267</v>
       </c>
       <c r="P8" t="n">
-        <v>91.73125636162658</v>
+        <v>92.30874497563076</v>
       </c>
       <c r="Q8" t="n">
-        <v>146.5806684806956</v>
+        <v>147.1581570946998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_7</t>
+          <t>model_25_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9366796737128483</v>
+        <v>0.9523676630618726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8090337499729332</v>
+        <v>0.8244348475025368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9685684010434539</v>
+        <v>0.776073684215342</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9529894353493766</v>
+        <v>0.9571717460562552</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9597683142215221</v>
+        <v>0.9429472739654609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4234233134454765</v>
+        <v>0.3185176564320024</v>
       </c>
       <c r="H9" t="n">
-        <v>1.276992193249723</v>
+        <v>1.17400498315373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4246568186263485</v>
+        <v>0.3390950750213026</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8275710159214313</v>
+        <v>0.3725285644403028</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6261139424081171</v>
+        <v>0.3558117496770284</v>
       </c>
       <c r="L9" t="n">
-        <v>1.231162338849825</v>
+        <v>0.9735030206473695</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6507098535026778</v>
+        <v>0.5643736850988026</v>
       </c>
       <c r="N9" t="n">
-        <v>1.072366087185316</v>
+        <v>1.054436956500717</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6784119191213791</v>
+        <v>0.5884002412880442</v>
       </c>
       <c r="P9" t="n">
-        <v>91.71876571867492</v>
+        <v>92.28815473859844</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.5681778377439</v>
+        <v>147.1375668576675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_8</t>
+          <t>model_25_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9362182972396552</v>
+        <v>0.9518609346520298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8084900844037375</v>
+        <v>0.8240383710494698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9670048175904925</v>
+        <v>0.7791093980972964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9515147707375891</v>
+        <v>0.957186059791968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9582555655880703</v>
+        <v>0.9433258060016367</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4265085400461623</v>
+        <v>0.3219061516418912</v>
       </c>
       <c r="H10" t="n">
-        <v>1.280627687414285</v>
+        <v>1.176656223020996</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4457816228626637</v>
+        <v>0.3344980466508878</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8535309187643393</v>
+        <v>0.3724040607557987</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6496564063251945</v>
+        <v>0.3534510185522962</v>
       </c>
       <c r="L10" t="n">
-        <v>1.228715896031409</v>
+        <v>1.000520985795309</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6530762130457382</v>
+        <v>0.5673677393383335</v>
       </c>
       <c r="N10" t="n">
-        <v>1.072893374583251</v>
+        <v>1.055016074683395</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6808790194892271</v>
+        <v>0.5915217586150987</v>
       </c>
       <c r="P10" t="n">
-        <v>91.70424577739196</v>
+        <v>92.26699046089429</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.553657896461</v>
+        <v>147.1164025799633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_9</t>
+          <t>model_25_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9356907569245932</v>
+        <v>0.9513346458373743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8079114968604842</v>
+        <v>0.8236239467905287</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9653438326281667</v>
+        <v>0.782065004498267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9499891779020551</v>
+        <v>0.9571799470307634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9566717342518529</v>
+        <v>0.9436803355382761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4300362045620813</v>
+        <v>0.3254254473688298</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28449670498017</v>
+        <v>1.179427479948783</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4682223708138767</v>
+        <v>0.33002232627493</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8803873588468683</v>
+        <v>0.3724572307533268</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6743051095261692</v>
+        <v>0.3512399800356185</v>
       </c>
       <c r="L11" t="n">
-        <v>1.226414672646619</v>
+        <v>1.028006876730691</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6557714575689317</v>
+        <v>0.5704607325389101</v>
       </c>
       <c r="N11" t="n">
-        <v>1.073496277800465</v>
+        <v>1.055617547614429</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6836890061516984</v>
+        <v>0.5947464269396023</v>
       </c>
       <c r="P11" t="n">
-        <v>91.68777175436573</v>
+        <v>92.24524376781758</v>
       </c>
       <c r="Q11" t="n">
-        <v>146.5371838734348</v>
+        <v>147.0946558868866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_10</t>
+          <t>model_25_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.935097895638685</v>
+        <v>0.9507880862103791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8072978426869385</v>
+        <v>0.8231910059069777</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9635844289267349</v>
+        <v>0.7849342241910845</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9484148144492245</v>
+        <v>0.9571526152871769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9550176284934824</v>
+        <v>0.9440096783732577</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4340006707108255</v>
+        <v>0.3290802941112216</v>
       </c>
       <c r="H12" t="n">
-        <v>1.288600213264288</v>
+        <v>1.182322557630599</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4919928057689162</v>
+        <v>0.3256774226240157</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9081023538011215</v>
+        <v>0.3726949676271047</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7000474729766064</v>
+        <v>0.3491860194538324</v>
       </c>
       <c r="L12" t="n">
-        <v>1.224250075474401</v>
+        <v>1.055959970094342</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6587872727298437</v>
+        <v>0.5736552049020576</v>
       </c>
       <c r="N12" t="n">
-        <v>1.074173833555789</v>
+        <v>1.056242187188138</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6868332108076083</v>
+        <v>0.5980768946047185</v>
       </c>
       <c r="P12" t="n">
-        <v>91.66941839893255</v>
+        <v>92.22290700588809</v>
       </c>
       <c r="Q12" t="n">
-        <v>146.5188305180016</v>
+        <v>147.0723191249571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_11</t>
+          <t>model_25_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9344409831091133</v>
+        <v>0.9502206925802419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8066491816919048</v>
+        <v>0.8227391289727132</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9617260435239882</v>
+        <v>0.7877104237354794</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9467945923717928</v>
+        <v>0.9571034381195388</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9532945880184767</v>
+        <v>0.944312397893432</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4383934478208749</v>
+        <v>0.332874457928557</v>
       </c>
       <c r="H13" t="n">
-        <v>1.292937812324888</v>
+        <v>1.185344260770727</v>
       </c>
       <c r="I13" t="n">
-        <v>0.517100533632303</v>
+        <v>0.3214733808190944</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9366246410912971</v>
+        <v>0.3731227202898093</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7268626472319117</v>
+        <v>0.3472980963058754</v>
       </c>
       <c r="L13" t="n">
-        <v>1.222212138167637</v>
+        <v>1.084378986979403</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6621128663761753</v>
+        <v>0.5769527345706552</v>
       </c>
       <c r="N13" t="n">
-        <v>1.074924590732442</v>
+        <v>1.056890637051152</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6903003818603921</v>
+        <v>0.6015148069381359</v>
       </c>
       <c r="P13" t="n">
-        <v>91.64927697824817</v>
+        <v>92.19997972660563</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.4986890973172</v>
+        <v>147.0493918456747</v>
       </c>
     </row>
     <row r="14">
@@ -1182,492 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.933721073067324</v>
+        <v>0.9496318003452288</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8059654584547031</v>
+        <v>0.8222678045502846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9597679568111747</v>
+        <v>0.7903851548243447</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9451308788661077</v>
+        <v>0.9570316629479797</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9515037178919142</v>
+        <v>0.9445870643482313</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4432074895852009</v>
+        <v>0.3368123830156893</v>
       </c>
       <c r="H14" t="n">
-        <v>1.297509872760311</v>
+        <v>1.188496009353756</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5435552766826802</v>
+        <v>0.31742299426197</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9659125487421519</v>
+        <v>0.373747034828957</v>
       </c>
       <c r="K14" t="n">
-        <v>0.75473343448793</v>
+        <v>0.3455851272919054</v>
       </c>
       <c r="L14" t="n">
-        <v>1.220291744444973</v>
+        <v>1.11326587441574</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6657383041294836</v>
+        <v>0.5803553937163756</v>
       </c>
       <c r="N14" t="n">
-        <v>1.075747345065915</v>
+        <v>1.05756365674831</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6940801620045497</v>
+        <v>0.605062324328165</v>
       </c>
       <c r="P14" t="n">
-        <v>91.62743448961655</v>
+        <v>92.17645846123236</v>
       </c>
       <c r="Q14" t="n">
-        <v>146.4768466086856</v>
+        <v>147.0258705803014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_13</t>
+          <t>model_25_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9329393189189836</v>
+        <v>0.9490207986743658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8052466242767082</v>
+        <v>0.8217765374340483</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9577098601558937</v>
+        <v>0.7929523256795523</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9434264752057445</v>
+        <v>0.9569366218275698</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9496463324765394</v>
+        <v>0.9448325035663057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4484350831748</v>
+        <v>0.340898154002154</v>
       </c>
       <c r="H15" t="n">
-        <v>1.30231672021849</v>
+        <v>1.191781114822106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5713612047000682</v>
+        <v>0.3135354878262535</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9959167633102977</v>
+        <v>0.3745737211607321</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7836393797022316</v>
+        <v>0.3440544351814263</v>
       </c>
       <c r="L15" t="n">
-        <v>1.218487995583516</v>
+        <v>1.142613155331432</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6696529572657766</v>
+        <v>0.5838648422384705</v>
       </c>
       <c r="N15" t="n">
-        <v>1.076640778378305</v>
+        <v>1.058261944372153</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6981614700293036</v>
+        <v>0.6087211773394052</v>
       </c>
       <c r="P15" t="n">
-        <v>91.6039827000892</v>
+        <v>92.15234302984872</v>
       </c>
       <c r="Q15" t="n">
-        <v>146.4533948191582</v>
+        <v>147.0017551489177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_14</t>
+          <t>model_25_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9320971140789427</v>
+        <v>0.9483868568434838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8044926461707003</v>
+        <v>0.8212648238809167</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9555513559172535</v>
+        <v>0.7954038045652461</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9416839020586826</v>
+        <v>0.9568176183089505</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9477238571226936</v>
+        <v>0.9450471299831724</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4540669108181507</v>
+        <v>0.3451373259442959</v>
       </c>
       <c r="H16" t="n">
-        <v>1.307358575285115</v>
+        <v>1.195202945708121</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6005236900142794</v>
+        <v>0.3098231755250193</v>
       </c>
       <c r="J16" t="n">
-        <v>1.026592911115562</v>
+        <v>0.375608837138442</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8135583005649206</v>
+        <v>0.3427159084146939</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21677837623506</v>
+        <v>1.172423971849237</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6738448714787036</v>
+        <v>0.5874838941999141</v>
       </c>
       <c r="N16" t="n">
-        <v>1.077603298195494</v>
+        <v>1.058986449321733</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7025318427087337</v>
+        <v>0.6124942998353179</v>
       </c>
       <c r="P16" t="n">
-        <v>91.57902142228706</v>
+        <v>92.12762578986961</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.4284335413561</v>
+        <v>146.9770379089387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_15</t>
+          <t>model_25_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9311958476589224</v>
+        <v>0.9477293608148012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8037037022250084</v>
+        <v>0.8207321720542359</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9532925471586394</v>
+        <v>0.7977320827890636</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9399059453363661</v>
+        <v>0.9566737881341352</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9457378166683675</v>
+        <v>0.945229490625345</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4600936835187763</v>
+        <v>0.3495340049155869</v>
       </c>
       <c r="H17" t="n">
-        <v>1.312634247082709</v>
+        <v>1.198764790925772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6310413401867856</v>
+        <v>0.3062974278869653</v>
       </c>
       <c r="J17" t="n">
-        <v>1.057891949148543</v>
+        <v>0.3768599002477981</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8444664664689531</v>
+        <v>0.3415786085225838</v>
       </c>
       <c r="L17" t="n">
-        <v>1.215166719794639</v>
+        <v>1.202687150242276</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6783020592028129</v>
+        <v>0.5912140094040287</v>
       </c>
       <c r="N17" t="n">
-        <v>1.078633316961232</v>
+        <v>1.059737873354513</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7071787821419089</v>
+        <v>0.6163832137660746</v>
       </c>
       <c r="P17" t="n">
-        <v>91.55265030082283</v>
+        <v>92.10230885229079</v>
       </c>
       <c r="Q17" t="n">
-        <v>146.4020624198918</v>
+        <v>146.9517209713598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_16</t>
+          <t>model_25_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9302366501561589</v>
+        <v>0.9470475743555274</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8028797423714131</v>
+        <v>0.8201780857671956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9509338321458536</v>
+        <v>0.7999288550581763</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9380945995958495</v>
+        <v>0.9565045408931787</v>
       </c>
       <c r="F18" t="n">
-        <v>0.943689523850021</v>
+        <v>0.9453781851029474</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4665078416364545</v>
+        <v>0.3540931141080887</v>
       </c>
       <c r="H18" t="n">
-        <v>1.318144070417688</v>
+        <v>1.202469968478543</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6629087744449207</v>
+        <v>0.302970821745167</v>
       </c>
       <c r="J18" t="n">
-        <v>1.089778765352619</v>
+        <v>0.3783320459904622</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8763434476812892</v>
+        <v>0.3406512690960511</v>
       </c>
       <c r="L18" t="n">
-        <v>1.213636212838147</v>
+        <v>1.233408262858472</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6830137931524183</v>
+        <v>0.5950572359933863</v>
       </c>
       <c r="N18" t="n">
-        <v>1.079729542678675</v>
+        <v>1.060517057879397</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7120911043603828</v>
+        <v>0.6203900544679171</v>
       </c>
       <c r="P18" t="n">
-        <v>91.52496089865187</v>
+        <v>92.0763907324643</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.3743730177209</v>
+        <v>146.9258028515333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_17</t>
+          <t>model_25_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9292210207307425</v>
+        <v>0.9463408606032033</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8020209339811319</v>
+        <v>0.8196021058125301</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9484758229822539</v>
+        <v>0.8019858557894008</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9362524841254057</v>
+        <v>0.9563094101929137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9415806628693512</v>
+        <v>0.945491828696283</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4732993602807571</v>
+        <v>0.3588189122239974</v>
       </c>
       <c r="H19" t="n">
-        <v>1.323886926077947</v>
+        <v>1.206321549087535</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6961177229623593</v>
+        <v>0.2998558737997712</v>
       </c>
       <c r="J19" t="n">
-        <v>1.122207249942189</v>
+        <v>0.3800293311458037</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9091630334641989</v>
+        <v>0.3399425259983092</v>
       </c>
       <c r="L19" t="n">
-        <v>1.212181803206927</v>
+        <v>1.264576648994518</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6879675575786675</v>
+        <v>0.5990149515863502</v>
       </c>
       <c r="N19" t="n">
-        <v>1.080890262022008</v>
+        <v>1.061324730739196</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7172557607939635</v>
+        <v>0.6245162582072741</v>
       </c>
       <c r="P19" t="n">
-        <v>91.49605438737112</v>
+        <v>92.04987488106441</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.3454665064401</v>
+        <v>146.8992870001334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_18</t>
+          <t>model_25_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9281502992109416</v>
+        <v>0.9456083810774564</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8011273142592277</v>
+        <v>0.8190036929420726</v>
       </c>
       <c r="D20" t="n">
-        <v>0.945919089957042</v>
+        <v>0.8038957430749772</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9343814373221272</v>
+        <v>0.9560872147592751</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9394126855493985</v>
+        <v>0.9455687423220523</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4804592800138854</v>
+        <v>0.3637170061854256</v>
       </c>
       <c r="H20" t="n">
-        <v>1.329862565273062</v>
+        <v>1.210323138707722</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7306604808431905</v>
+        <v>0.2969637020149796</v>
       </c>
       <c r="J20" t="n">
-        <v>1.155145039890757</v>
+        <v>0.381962030667651</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9429026295209241</v>
+        <v>0.3394628509036881</v>
       </c>
       <c r="L20" t="n">
-        <v>1.210792405274479</v>
+        <v>1.296196831667451</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6931517005777923</v>
+        <v>0.6030895507181546</v>
       </c>
       <c r="N20" t="n">
-        <v>1.082113943758924</v>
+        <v>1.062161850197193</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7226606034932164</v>
+        <v>0.6287643214597024</v>
       </c>
       <c r="P20" t="n">
-        <v>91.46602559838237</v>
+        <v>92.02275833851046</v>
       </c>
       <c r="Q20" t="n">
-        <v>146.3154377174514</v>
+        <v>146.8721704575795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_19</t>
+          <t>model_25_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9270258107286652</v>
+        <v>0.9448496200672083</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8001990948294686</v>
+        <v>0.818382373138387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9432650495632892</v>
+        <v>0.8056509751238576</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9324833531639188</v>
+        <v>0.9558377312604617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.937187096224981</v>
+        <v>0.9456078934634502</v>
       </c>
       <c r="G21" t="n">
-        <v>0.487978739672661</v>
+        <v>0.3687908445547277</v>
       </c>
       <c r="H21" t="n">
-        <v>1.336069572873918</v>
+        <v>1.214477907095882</v>
       </c>
       <c r="I21" t="n">
-        <v>0.766517910548726</v>
+        <v>0.2943057270413402</v>
       </c>
       <c r="J21" t="n">
-        <v>1.188558793730704</v>
+        <v>0.3841320871398701</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9775388243292948</v>
+        <v>0.3392186831471085</v>
       </c>
       <c r="L21" t="n">
-        <v>1.209459092537013</v>
+        <v>1.328249766500763</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6985547506621518</v>
+        <v>0.607281520017469</v>
       </c>
       <c r="N21" t="n">
-        <v>1.083399073452954</v>
+        <v>1.063029005637476</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7282936726055226</v>
+        <v>0.6331347515706613</v>
       </c>
       <c r="P21" t="n">
-        <v>91.43496688064515</v>
+        <v>91.99505122513581</v>
       </c>
       <c r="Q21" t="n">
-        <v>146.2843789997142</v>
+        <v>146.8444633442049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_20</t>
+          <t>model_25_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9258490004325208</v>
+        <v>0.9440635706076975</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7992364386875063</v>
+        <v>0.8177376762522378</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9405150604692202</v>
+        <v>0.8072421212209628</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9305599935050848</v>
+        <v>0.9555600336064138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9349055960798054</v>
+        <v>0.9456073896401629</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4958480755416912</v>
+        <v>0.3740471609099012</v>
       </c>
       <c r="H22" t="n">
-        <v>1.342506858927844</v>
+        <v>1.218788998142118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8036716557832253</v>
+        <v>0.2918962299562069</v>
       </c>
       <c r="J22" t="n">
-        <v>1.222417495889955</v>
+        <v>0.3865475558756907</v>
       </c>
       <c r="K22" t="n">
-        <v>1.013045142865534</v>
+        <v>0.3392218252624439</v>
       </c>
       <c r="L22" t="n">
-        <v>1.208167336402074</v>
+        <v>1.360746868818621</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7041648070882918</v>
+        <v>0.611593951008266</v>
       </c>
       <c r="N22" t="n">
-        <v>1.08474399950569</v>
+        <v>1.063927347876917</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7341425607481412</v>
+        <v>0.6376307716766993</v>
       </c>
       <c r="P22" t="n">
-        <v>91.40297139697506</v>
+        <v>91.9667467816556</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.2523835160441</v>
+        <v>146.8161589007246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9432495691639897</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8170690349606951</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8086608706752249</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9552535440867606</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9455659026528787</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.379490392312107</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.223260205537475</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2897477957672926</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.389213461913382</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.3394805606211274</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.393674385463888</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.616027915205234</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.064857635241155</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6422534989091035</v>
+      </c>
+      <c r="P23" t="n">
+        <v>91.93785199833513</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>146.7872641174042</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9424070950400493</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8163759868126088</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8098997365781675</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9549179594209333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9454822755556922</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3851240206581334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.22789462169492</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2878717620156201</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.3921324432468969</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3400021045654483</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.427027991485236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.620583612946824</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.065820462811372</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6470031421351474</v>
+      </c>
+      <c r="P24" t="n">
+        <v>91.90837972997605</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>146.7577918490451</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9415350842640461</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8156579737067378</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8109492607762929</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9545522190056011</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9453546490434648</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3909551607325074</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.232695978640027</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2862824513289643</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3953137252123134</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3407980527308929</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.460811248739266</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6252640727984516</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.066817046555376</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6518828588525464</v>
+      </c>
+      <c r="P25" t="n">
+        <v>91.87832480801266</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>146.7277369270817</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9406329799742104</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8149144668327973</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8118007957525633</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9541560948053993</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9451818078662317</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3969875362724472</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.237667812529601</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.284992958775801</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3987592913060201</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3418759840754938</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.495020403454401</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.630069469401944</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.067848022886617</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6568928311379917</v>
+      </c>
+      <c r="P26" t="n">
+        <v>91.84770078713501</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>146.697112906204</v>
       </c>
     </row>
   </sheetData>
